--- a/amazon_data.xlsx
+++ b/amazon_data.xlsx
@@ -448,266 +448,262 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Silver, 6GB RAM, 128GB Storage)</t>
+          <t>Acer Aspire Lite AMD Ryzen 5 5500U Premium Thin and Light Laptop (16 GB RAM/512 GB SSD/Windows 11 Home) AL15-41, 39.62 cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.59 KG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15,490</t>
+          <t>89,990</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>realme 8 5G (Supersonic Blue, 8GB RAM, 128GB Storage)</t>
+          <t>Acer Aspire 5 Gaming Laptop 13th Gen Intel Core i5 (Windows 11 Home/ 16 GB RAM/ 512 GB SSD/NVIDIA GeForce RTX 2050), A515-58GM 39.62 cm (15.6") IPS Full HD Display, Steel Gray, 1.78 KG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17,990</t>
+          <t>80,490</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(Refurbished) Realme 8 (Cyber Silver, 128 GB) (4 GB RAM)</t>
+          <t>Acer Aspire 5 13th Gen Intel Core i3 (8 GB RAM/512 GB SSD/Windows 11 Home/MS Office), A515-58M 15.6" Full HD Display, Steel Gray, 1.75 KG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11,690</t>
+          <t>36,990</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Realme 8 (Cyber Black, 8GB RAM, 128GB Storage), Medium</t>
+          <t>Acer Aspire 5 Thin and Light Laptop 13th Gen Intel Core i3-1315U (8 GB RAM/512 GB SSD/Windows 11 Home/MS Office), A515-58P 15.6" Full HD Display, Steel Gray, Wi-Fi 6, 1.78 Kg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16,999</t>
+          <t>64,990</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Silver, 6GB RAM+128GB Storage) with No Cost EMI/Additional Exchange Offers</t>
+          <t>Acer Aspire 5 Thin and Light Laptop 13th Gen Intel Core i3-1315U (Windows 11 Home/8 GB RAM/512 GB SSD) A515-58P 15.6" Full HD Display, Steel Gray, Wi-Fi 6, 1.78 KG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15,400</t>
+          <t>40,990</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(Refurbished) Realme 8 5G (Supersonic Black, 8GB RAM, 128GB Storage)</t>
+          <t>Acer Aspire Lite 11th Gen Intel Core i3 Premium Metal Laptop (8GB RAM/512GB SSD/Windows 11 Home) AL15-51, 39.62cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.59 Kg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14,499</t>
+          <t>40,990</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Black, 4GB RAM, 128GB Storage)</t>
+          <t>Acer Aspire 5 13th Gen Intel Core i5 (16 GB RAM/512 GB SSD/Windows 11 Home/MS Office), A515-58M 15.6" Full HD IPS 45% NTSC Display, Steel Gray, 1.75 KG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13,999</t>
+          <t>31,990</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>realme 12 Pro+ 5G (Submarine Blue, 8GB RAM, 128GB Storage)</t>
+          <t>Acer Aspire 5 Gaming Laptop 13th Gen Intel Core i5 (16 GB RAM/512 GB SSD/NVIDIA RTX 2050 4GB Graphics/Windows 11 Home), A515-58GM 15.6" Full HD Display, Steel Gray, 1.78 KG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30,090</t>
+          <t>54,990</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>realme 11x 5G (Purple Dawn, 8GB RAM, 128GB Storage)</t>
+          <t>Acer Aspire 3 Laptop 13th Gen Intel Core i3-N305 Processor (Windows 11 Home/8 GB RAM/512 GB SSD/Intel UHD Graphics) A315-510P, 39.62 cm (15.6") Full HD Display, Pure Silver, 1.7 KG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15,999</t>
+          <t>57,990</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>realme 11 5G (Glory Gold, 8GB RAM, 256GB Storage) | Dynamic Ultra Smooth Display | Up to 8GB+8GB Dynamic RAM | 108MP 3× Zoom | 16MP Selfie Camera | Dimensity 6100+ 5G Processor | 67W SUPERVOOC Charge</t>
+          <t>Acer Aspire 5 Gaming Laptop Intel Core i5 13th Gen (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA GeForce RTX 2050) A514-56GM,14" WUXGA Display, 1.56 KG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17,999</t>
+          <t>59,990</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>realme narzo N55 (Prime Black, 6GB+128GB) 33W Segment Fastest Charging | Super High-res 64MP Primary AI Camera</t>
+          <t>Microsoft New Surface Pro9 13" Intel 12 Gen i5 / 8GB / 128GB Platinum with Bluetooth,Wi-Fi, NFC Windows 11 Home, 365 Family 30-Day Trial &amp; Xbox Game Pass Ultimate 30-Day Trial</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8,999</t>
+          <t>88,553</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Redmi 12 5G Moonstone Silver 6GB RAM 128GB ROM</t>
+          <t>Acer Aspire 3 (Intel Core i3 1215U Processor/ 8GB/ 512 GB SSD/Windows 11 Home/MS Office) A315-59 with 39.6 cm (15.6") Full HD Display /1.78kg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13,499</t>
+          <t>36,990</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>realme 12 Pro 5G (Submarine Blue, 8GB RAM 256 GB Storage)</t>
+          <t>Acer Aspire 5 Gaming Laptop 13th Gen Intel Core i5 (Windows 11 Home/ 8 GB RAM/ 512 GB SSD/NVIDIA GeForce RTX 2050), A515-58GM 39.62 cm (15.6") IPS Full HD Display, Steel Gray, 1.78 KG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26,330</t>
+          <t>62,499</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>realme narzo N53 (Feather Gold, 8GB+128GB) 33W Segment Fastest Charging | Slimmest Phone in Segment | 90 Hz Smooth Display</t>
+          <t>Acer Aspire 5 13th Gen Intel Core i5 (8 GB RAM/512 GB SSD/Windows 11 Home/MS Office), A514-56M 14" Full HD IPS 45% NTSC Display, Steel Gray, 1.4 KG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8,999</t>
+          <t>52,990</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TECNO POP 8 (Mystery White,(8GB*+64GB)|90Hz Punch Hole Display with Dynamic Port &amp; Dual Speakers with DTS| 5000mAh Battery |10W Type-C| Side Fingerprint Sensor| Octa-Core Processor</t>
+          <t>Acer Aspire Lite 12th Gen Intel Core i3-1215U Premium Metal Laptop (Windows 11 Home/8 GB RAM/512GB SSD) AL15-52, 39.62cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.59 Kg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6,499</t>
+          <t>34,990</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>realme narzo 60 5G (Cosmic Black,8GB+128GB) | 90Hz Super AMOLED Display | Ultra Sharp 64 MP Camera | with 33W SUPERVOOC Charger</t>
+          <t>Acer Aspire Lite 11th Gen Intel Core i3 Premium Metal Laptop (8GB RAM/256GB SSD/Windows 11 Home) AL15-51, 39.62cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.59 Kg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15,999</t>
+          <t>30,990</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>realme narzo 60 5G (Mars Orange,8GB+128GB) 90Hz Super AMOLED Display | Ultra Premium Vegan Leather Design | with 33W SUPERVOOC Charger</t>
+          <t>Acer Aspire 5 Gaming Laptop Intel Core i7 13th Gen (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA GeForce RTX 2050) A514-56GM,14" WUXGA Display, 1.56 KG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15,999</t>
+          <t>70,990</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>itel A70 | 12GB* RAM + 128GB ROM| 13MP Dual Rear Camera &amp; 8MP Front Camera | 5000mAh Battery with Type-C Charging | Dynamic Bar | Side Fingerprint Sensor | Octa-Core Processor | Starlish Black</t>
+          <t>Acer Aspire 5 Gaming Laptop Intel Core i5 13th Gen (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA GeForce RTX 2050) A514-56GM,14" WUXGA Display, 1.56 KG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6,799</t>
+          <t>60,990</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>realme narzo N53 (Feather Gold, 4GB+64GB) 33W Segment Fastest Charging | Slim Smartphone | 90 Hz Smooth Display</t>
+          <t>Acer Aspire Lite 12th Gen Intel Core i5-1235U Thin and Light Laptop (Windows 11 Home/16GB RAM/512GB SSD/Intel Iris Xe Graphics) AL15-52, 39.62cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.6 KG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7,999</t>
+          <t>38,689</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus 5G (Cobalt Violet, 12GB, 512GB Storage)</t>
+          <t>Acer Aspire 3 Intel Core i3 11th Gen- (8 GB/512 GB SSD/Windows 11 Home/MS Office/1.7 Kg/Silver) A315-58 with 15.6-inch (39.6 cms) Full HD Display Laptop</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1,09,999</t>
+          <t>1,11,499</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 5G (Onyx Black, 8GB, 256GB Storage)</t>
+          <t>Microsoft New Surface Pro9 13 Inch (33.03 cm) Intel Evo 12 Gen i5 / 8GB / 256GB Graphite with Windows 11 Home, Wi-Fi, 365 Family 30-Day Trial &amp; Xbox Game Pass Ultimate 30-Day Trial</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>78,999</t>
+          <t>1,08,990</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lava Blaze 2 5G (Glass Blue, 6GB RAM, 128GB Storage)| Stunning Ring Light| 50 MP AI Camera |5000 mAh Battery| Upto 12 GB Expandable RAM</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>10,999</t>
-        </is>
-      </c>
+          <t>Microsoft New Surface Pro9 13" Intel evo 12 Gen i5 / 8GB / 256GB Forest with Windows 11 Home, 365 Family 30-Day Trial &amp; Xbox Game Pass Ultimate 30-Day Trial, Bluetooth</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/amazon_data.xlsx
+++ b/amazon_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,266 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Acer Aspire Lite AMD Ryzen 5 5500U Premium Thin and Light Laptop (16 GB RAM/512 GB SSD/Windows 11 Home) AL15-41, 39.62 cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.59 KG</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>89,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 Gaming Laptop 13th Gen Intel Core i5 (Windows 11 Home/ 16 GB RAM/ 512 GB SSD/NVIDIA GeForce RTX 2050), A515-58GM 39.62 cm (15.6") IPS Full HD Display, Steel Gray, 1.78 KG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>80,490</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 13th Gen Intel Core i3 (8 GB RAM/512 GB SSD/Windows 11 Home/MS Office), A515-58M 15.6" Full HD Display, Steel Gray, 1.75 KG</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>36,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 Thin and Light Laptop 13th Gen Intel Core i3-1315U (8 GB RAM/512 GB SSD/Windows 11 Home/MS Office), A515-58P 15.6" Full HD Display, Steel Gray, Wi-Fi 6, 1.78 Kg</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>64,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 Thin and Light Laptop 13th Gen Intel Core i3-1315U (Windows 11 Home/8 GB RAM/512 GB SSD) A515-58P 15.6" Full HD Display, Steel Gray, Wi-Fi 6, 1.78 KG</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>40,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Acer Aspire Lite 11th Gen Intel Core i3 Premium Metal Laptop (8GB RAM/512GB SSD/Windows 11 Home) AL15-51, 39.62cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.59 Kg</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>40,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 13th Gen Intel Core i5 (16 GB RAM/512 GB SSD/Windows 11 Home/MS Office), A515-58M 15.6" Full HD IPS 45% NTSC Display, Steel Gray, 1.75 KG</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 Gaming Laptop 13th Gen Intel Core i5 (16 GB RAM/512 GB SSD/NVIDIA RTX 2050 4GB Graphics/Windows 11 Home), A515-58GM 15.6" Full HD Display, Steel Gray, 1.78 KG</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>54,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Laptop 13th Gen Intel Core i3-N305 Processor (Windows 11 Home/8 GB RAM/512 GB SSD/Intel UHD Graphics) A315-510P, 39.62 cm (15.6") Full HD Display, Pure Silver, 1.7 KG</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>57,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 Gaming Laptop Intel Core i5 13th Gen (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA GeForce RTX 2050) A514-56GM,14" WUXGA Display, 1.56 KG</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>59,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Microsoft New Surface Pro9 13" Intel 12 Gen i5 / 8GB / 128GB Platinum with Bluetooth,Wi-Fi, NFC Windows 11 Home, 365 Family 30-Day Trial &amp; Xbox Game Pass Ultimate 30-Day Trial</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>88,553</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 (Intel Core i3 1215U Processor/ 8GB/ 512 GB SSD/Windows 11 Home/MS Office) A315-59 with 39.6 cm (15.6") Full HD Display /1.78kg</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>36,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 Gaming Laptop 13th Gen Intel Core i5 (Windows 11 Home/ 8 GB RAM/ 512 GB SSD/NVIDIA GeForce RTX 2050), A515-58GM 39.62 cm (15.6") IPS Full HD Display, Steel Gray, 1.78 KG</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>62,499</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 13th Gen Intel Core i5 (8 GB RAM/512 GB SSD/Windows 11 Home/MS Office), A514-56M 14" Full HD IPS 45% NTSC Display, Steel Gray, 1.4 KG</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>52,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Acer Aspire Lite 12th Gen Intel Core i3-1215U Premium Metal Laptop (Windows 11 Home/8 GB RAM/512GB SSD) AL15-52, 39.62cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.59 Kg</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>34,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Acer Aspire Lite 11th Gen Intel Core i3 Premium Metal Laptop (8GB RAM/256GB SSD/Windows 11 Home) AL15-51, 39.62cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.59 Kg</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>30,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 Gaming Laptop Intel Core i7 13th Gen (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA GeForce RTX 2050) A514-56GM,14" WUXGA Display, 1.56 KG</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>70,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Acer Aspire 5 Gaming Laptop Intel Core i5 13th Gen (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA GeForce RTX 2050) A514-56GM,14" WUXGA Display, 1.56 KG</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>60,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Acer Aspire Lite 12th Gen Intel Core i5-1235U Thin and Light Laptop (Windows 11 Home/16GB RAM/512GB SSD/Intel Iris Xe Graphics) AL15-52, 39.62cm (15.6") Full HD Display, Metal Body, Steel Gray, 1.6 KG</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>38,689</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Intel Core i3 11th Gen- (8 GB/512 GB SSD/Windows 11 Home/MS Office/1.7 Kg/Silver) A315-58 with 15.6-inch (39.6 cms) Full HD Display Laptop</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1,11,499</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Microsoft New Surface Pro9 13 Inch (33.03 cm) Intel Evo 12 Gen i5 / 8GB / 256GB Graphite with Windows 11 Home, Wi-Fi, 365 Family 30-Day Trial &amp; Xbox Game Pass Ultimate 30-Day Trial</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1,08,990</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Microsoft New Surface Pro9 13" Intel evo 12 Gen i5 / 8GB / 256GB Forest with Windows 11 Home, 365 Family 30-Day Trial &amp; Xbox Game Pass Ultimate 30-Day Trial, Bluetooth</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/amazon_data.xlsx
+++ b/amazon_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,198 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 7 6800H 15.6" (39.62cm) FHD IPS 120Hz Gaming Laptop (16GB/512GB SSD/Win11/Office/NVIDIA RTX 3050 4GB/RGB Keyboard/Alexa/3 Month Game Pass/Onyx Grey/2.32Kg),82SB00Y8IN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>69,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5-11320H 15.6" (39.62cm) FHD IPS 144Hz Gaming Laptop (8GB/512GB SSD/Win 11/NVIDIA RTX 2050 4GB/Alexa/3 Month Game Pass/Shadow Black/2.25Kg), 82K101PBIN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>51,750</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 5500H 15.6" (39.62cm) FHD IPS 300nits 144Hz Gaming Laptop (8GB/512GB SSD/Windows 11/NVIDIA RTX 2050 4GB/Alexa/3 Month Game Pass/Onyx Grey/2.32Kg), 82K20289IN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>49,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 7535HS 15.6" (39.62cm) FHD IPS 120Hz Gaming Laptop (16GB/512GB SSD/Win 11/NVIDIA RTX 2050 4GB/Alexa/3 Month Game Pass/Onyx Grey/2.32Kg), 82SB00NXIN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>54,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 6600H 15.6" (39.62cm) FHD IPS 120Hz Gaming Laptop (16GB/512GB SSD/Win11/Office/NVIDIA RTX 3050 4GB/RGB Keyboard/Alexa/3Month Game Pass/Onyx Grey/2.32Kg), 82SB00V3IN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>67,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 7 6800H 15.6" (39.62cm) FHD IPS 120Hz Gaming Laptop (8GB/512GB SSD/Win11/Office/NVIDIA RTX 3050 4GB/RGB Keyboard/Alexa/3 Month Game Pass/Onyx Grey/2.32Kg), 82SB00V5IN</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>66,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 12450H 15.6" (39.62cm) FHD IPS 120Hz Gaming Laptop (16GB/512GB SSD/Win11/Office 2021/NVIDIA RTX 3050 4GB/Alexa/3 Month Game Pass/Onyx Grey/2.3Kg), 82S9017TIN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>71,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 6600H 15.6" (39.62cm) FHD IPS 120Hz Gaming Laptop (8GB/512GB SSD/Win11/Office/NVIDIA RTX 3050 4GB/RGB Keyboard/Alexa/3 Month Game Pass/Onyx Grey/2.32Kg), 82SB00V2IN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>64,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 5600H 15.6" (39.62cm) FHD IPS 120Hz Gaming Laptop (8GB/512GB SSD/Win 11/NVIDIA RTX 3050 4GB/Alexa/3 Month Game Pass/Shadow Black/2.2Kg), 82K2012LIN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>60,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 11th Gen 15.6" (39.62cm) FHD IPS Gaming Laptop (8GB/512GB SSD/4GB NVIDIA GTX 1650/120Hz/Win 11/Backlit/3months Game Pass/Shadow Black/2.25Kg), 82K101GSIN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>50,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lenovo Ideapad Gaming 3 AMD Ryzen 5 5600H 15.6" (39.62cm) FHD IPS Gaming Laptop (8GB/512GB SSD/4GB NVIDIA RTX 3050/120Hz/Win 11/Office 2021/Backlit/3months Game Pass/Shadow Black/2.25Kg), 82K2022VIN</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>59,317</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 5500H 15.6" (39.62cm) FHD IPS 250nits 60Hz Gaming Laptop (8GB/512GB SSD/Windows 11/NVIDIA RTX 2050 4GB/Alexa/3 Month Game Pass/Onyx Grey/2.32Kg), 82K2028AIN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>47,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5-11320H 15.6" (39.62cm) FHD IPS 60Hz Gaming Laptop (8GB/512GB SSD/Win 11/NVIDIA GTX 1650 4GB/Alexa/3 Month Game Pass/Shadow Black/2.2Kg), 82K101B6IN</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>49,250</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5-11320H 15.6" (39.62cm) FHD IPS 120Hz Gaming Laptop (16GB/512GB SSD/Win 11/Office 2021/NVIDIA GTX 1650 4GB/Alexa/3 Month Game Pass/Shadow Black/2.25Kg), 82K101LJIN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>54,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 4600H 15.6" (39.63cm) FHD IPS Gaming Laptop (8GB/512GB SSD/Windows10/NVIDIA GTX 1650 4GB/120Hz Refresh Display/Onyx Black/2.2Kg), 82EY00UAIN + Xbox Game Pass for PC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>58,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 5500H 15.6" (39.62cm) FHD IPS 250nits Gaming Laptop (16GB/512GB SSD/NVIDIA GTX 2050 4GB/60Hz/Win 11/Alexa/3 Month Game Pass/Shadow Black/2.25Kg),82K2029CIN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>50,990</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
